--- a/data/trans_orig/P41E_2023_R-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P41E_2023_R-Dificultad-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>47923</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>37117</v>
+        <v>37505</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>60494</v>
+        <v>60672</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2109774572157071</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1634038596414424</v>
+        <v>0.165114420756698</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.266321570572426</v>
+        <v>0.2671050499565286</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>95</v>
@@ -762,19 +762,19 @@
         <v>56452</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>46701</v>
+        <v>46518</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>68166</v>
+        <v>67314</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2311163038501709</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1911950017266035</v>
+        <v>0.1904461960893426</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2790743635599736</v>
+        <v>0.275589773209922</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>155</v>
@@ -783,19 +783,19 @@
         <v>104374</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>90029</v>
+        <v>88716</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>121482</v>
+        <v>121147</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.2214123631384704</v>
+        <v>0.2214123631384705</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1909826653487174</v>
+        <v>0.1881964636685754</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2577049076580272</v>
+        <v>0.2569938351396731</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>179223</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>166652</v>
+        <v>166474</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>190029</v>
+        <v>189641</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7890225427842928</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7336784294275737</v>
+        <v>0.7328949500434715</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8365961403585568</v>
+        <v>0.8348855792433026</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>248</v>
@@ -833,19 +833,19 @@
         <v>187804</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>176090</v>
+        <v>176942</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>197555</v>
+        <v>197738</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7688836961498292</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7209256364400265</v>
+        <v>0.724410226790078</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8088049982733964</v>
+        <v>0.8095538039106577</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>411</v>
@@ -854,19 +854,19 @@
         <v>367027</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>349919</v>
+        <v>350254</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>381372</v>
+        <v>382685</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7785876368615294</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7422950923419726</v>
+        <v>0.743006164860327</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8090173346512827</v>
+        <v>0.8118035363314245</v>
       </c>
     </row>
     <row r="6">
@@ -958,19 +958,19 @@
         <v>79291</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>64361</v>
+        <v>66080</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>93926</v>
+        <v>95160</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1902633555120058</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1544375227371117</v>
+        <v>0.1585631274623428</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2253790665632385</v>
+        <v>0.228341784825363</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>129</v>
@@ -979,19 +979,19 @@
         <v>75492</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>63154</v>
+        <v>63666</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>88532</v>
+        <v>88395</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1695780853766261</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1418628242581605</v>
+        <v>0.1430126631944514</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1988700638246567</v>
+        <v>0.198563186945468</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>239</v>
@@ -1000,19 +1000,19 @@
         <v>154783</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>136456</v>
+        <v>136687</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>175887</v>
+        <v>175867</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1795795681674268</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1583166632147247</v>
+        <v>0.1585848000655362</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2040647492498312</v>
+        <v>0.2040407862472999</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>337454</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>322819</v>
+        <v>321585</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>352384</v>
+        <v>350665</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.8097366444879942</v>
+        <v>0.8097366444879943</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7746209334367616</v>
+        <v>0.7716582151746371</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8455624772628881</v>
+        <v>0.8414368725376573</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>540</v>
@@ -1050,19 +1050,19 @@
         <v>369683</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>356643</v>
+        <v>356780</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>382021</v>
+        <v>381509</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.8304219146233739</v>
+        <v>0.8304219146233738</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.801129936175343</v>
+        <v>0.801436813054532</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8581371757418395</v>
+        <v>0.8569873368055484</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>862</v>
@@ -1071,19 +1071,19 @@
         <v>707137</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>686033</v>
+        <v>686053</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>725464</v>
+        <v>725233</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.8204204318325732</v>
+        <v>0.8204204318325731</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7959352507501688</v>
+        <v>0.7959592137527001</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8416833367852752</v>
+        <v>0.8414151999344637</v>
       </c>
     </row>
     <row r="9">
@@ -1175,19 +1175,19 @@
         <v>42433</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>33068</v>
+        <v>33007</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>53653</v>
+        <v>55686</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.08291005720318416</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.06461283320060698</v>
+        <v>0.06449242121305671</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1048339953323991</v>
+        <v>0.1088058438785496</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>79</v>
@@ -1196,19 +1196,19 @@
         <v>49339</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>38988</v>
+        <v>39345</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>60898</v>
+        <v>61185</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.09933415469340502</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.07849455684657416</v>
+        <v>0.07921332912552993</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1226067314587241</v>
+        <v>0.1231834612611549</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>140</v>
@@ -1217,19 +1217,19 @@
         <v>91772</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>78361</v>
+        <v>78065</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>109343</v>
+        <v>110179</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.09099920934722508</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.07770195596098708</v>
+        <v>0.07740798769516459</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1084230461833807</v>
+        <v>0.109251937491496</v>
       </c>
     </row>
     <row r="11">
@@ -1246,19 +1246,19 @@
         <v>469357</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>458137</v>
+        <v>456104</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>478722</v>
+        <v>478783</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9170899427968158</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8951660046676009</v>
+        <v>0.89119415612145</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9353871667993929</v>
+        <v>0.9355075787869432</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>667</v>
@@ -1267,19 +1267,19 @@
         <v>447358</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>435799</v>
+        <v>435512</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>457709</v>
+        <v>457352</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9006658453065951</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8773932685412759</v>
+        <v>0.8768165387388448</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9215054431534252</v>
+        <v>0.9207866708744699</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1151</v>
@@ -1288,19 +1288,19 @@
         <v>916715</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>899144</v>
+        <v>898308</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>930126</v>
+        <v>930422</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9090007906527749</v>
+        <v>0.9090007906527748</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8915769538166193</v>
+        <v>0.890748062508504</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9222980440390131</v>
+        <v>0.9225920123048356</v>
       </c>
     </row>
     <row r="12">
@@ -1392,19 +1392,19 @@
         <v>16779</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>10302</v>
+        <v>10662</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>25267</v>
+        <v>25254</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03363985562724032</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02065367643692285</v>
+        <v>0.02137654551249024</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.05065751769066509</v>
+        <v>0.05063168140486154</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>26</v>
@@ -1413,19 +1413,19 @@
         <v>16070</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>10320</v>
+        <v>9986</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>23560</v>
+        <v>23341</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.03847254860154432</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02470529851949382</v>
+        <v>0.02390663552427109</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.05640318055629797</v>
+        <v>0.05587995954662668</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>48</v>
@@ -1434,19 +1434,19 @@
         <v>32849</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>24415</v>
+        <v>23836</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>43882</v>
+        <v>44562</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03584242798928196</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02664014112093995</v>
+        <v>0.02600740173926603</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04787994218636855</v>
+        <v>0.04862243259581452</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>482008</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>473520</v>
+        <v>473533</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>488485</v>
+        <v>488125</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9663601443727597</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.949342482309335</v>
+        <v>0.9493683185951386</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9793463235630772</v>
+        <v>0.9786234544875099</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>601</v>
@@ -1484,19 +1484,19 @@
         <v>401635</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>394145</v>
+        <v>394364</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>407385</v>
+        <v>407719</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9615274513984557</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9435968194437023</v>
+        <v>0.9441200404533734</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9752947014805062</v>
+        <v>0.976093364475729</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1073</v>
@@ -1505,19 +1505,19 @@
         <v>883643</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>872610</v>
+        <v>871930</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>892077</v>
+        <v>892656</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9641575720107179</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9521200578136314</v>
+        <v>0.9513775674041854</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9733598588790601</v>
+        <v>0.9739925982607338</v>
       </c>
     </row>
     <row r="15">
@@ -1609,19 +1609,19 @@
         <v>186425</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>164863</v>
+        <v>166261</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>211882</v>
+        <v>211983</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1126800804574101</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.09964697798053644</v>
+        <v>0.1004924119923046</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1280666743696297</v>
+        <v>0.1281278744228038</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>329</v>
@@ -1630,19 +1630,19 @@
         <v>197353</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>176530</v>
+        <v>176910</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>218517</v>
+        <v>217307</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1230505846740375</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1100678795525002</v>
+        <v>0.1103044706838931</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1362466891309231</v>
+        <v>0.1354920920121009</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>582</v>
@@ -1651,19 +1651,19 @@
         <v>383778</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>353073</v>
+        <v>355388</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>416791</v>
+        <v>414165</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1177847539140306</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1083611110020129</v>
+        <v>0.1090715866301733</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1279165816480037</v>
+        <v>0.1271108447463787</v>
       </c>
     </row>
     <row r="17">
@@ -1680,19 +1680,19 @@
         <v>1468042</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1442585</v>
+        <v>1442484</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1489604</v>
+        <v>1488206</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.8873199195425899</v>
+        <v>0.8873199195425898</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8719333256303704</v>
+        <v>0.8718721255771964</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9003530220194639</v>
+        <v>0.8995075880076955</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2056</v>
@@ -1701,19 +1701,19 @@
         <v>1406480</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1385316</v>
+        <v>1386526</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>1427303</v>
+        <v>1426923</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8769494153259625</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8637533108690771</v>
+        <v>0.864507907987899</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8899321204474999</v>
+        <v>0.8896955293161071</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>3497</v>
@@ -1722,19 +1722,19 @@
         <v>2874522</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>2841509</v>
+        <v>2844135</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>2905227</v>
+        <v>2902912</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.8822152460859692</v>
+        <v>0.8822152460859695</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8720834183519962</v>
+        <v>0.8728891552536212</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8916388889979867</v>
+        <v>0.8909284133698268</v>
       </c>
     </row>
     <row r="18">
